--- a/biology/Botanique/Isolépis_sétacé/Isolépis_sétacé.xlsx
+++ b/biology/Botanique/Isolépis_sétacé/Isolépis_sétacé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isol%C3%A9pis_s%C3%A9tac%C3%A9</t>
+          <t>Isolépis_sétacé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isolepis setacea
 L'isolépis sétacé, encore appelé isoete sétiforme, souchet sétacé ou scirpe sétacé (Isolepis setacea ou Schoenoplectus setaceus) est une espèce de plantes du genre Isolepis et de la famille des Cyperaceae.
